--- a/sim2.xlsx
+++ b/sim2.xlsx
@@ -37,10 +37,10 @@
     <t>jog</t>
   </si>
   <si>
-    <t>12km_pacerunnning</t>
+    <t>10km_pacerunnning</t>
   </si>
   <si>
-    <t>10km_pacerunnning</t>
+    <t>12km_pacerunnning</t>
   </si>
 </sst>
 </file>
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>9.9</v>
+        <v>28.05</v>
       </c>
       <c r="F2">
-        <v>-19.8</v>
+        <v>-56.1</v>
       </c>
       <c r="G2">
-        <v>-9.9</v>
+        <v>-28.05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,16 +458,16 @@
         <v>1.5</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>29.48242643759755</v>
+        <v>42.28354157319305</v>
       </c>
       <c r="F3">
-        <v>-58.12303830362603</v>
+        <v>-82.18194186027375</v>
       </c>
       <c r="G3">
-        <v>-28.64061186602849</v>
+        <v>-39.8984002870807</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,19 +478,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>75.03448739231509</v>
+        <v>85.35427078823629</v>
       </c>
       <c r="F4">
-        <v>-146.7745083243024</v>
+        <v>-164.8817806537484</v>
       </c>
       <c r="G4">
-        <v>-71.74002093198733</v>
+        <v>-79.5275098655121</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,19 +501,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>93.18544489484154</v>
+        <v>98.8784290951393</v>
       </c>
       <c r="F5">
-        <v>-176.9085777619662</v>
+        <v>-185.0480575060327</v>
       </c>
       <c r="G5">
-        <v>-83.72313286712469</v>
+        <v>-86.16962841089341</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,16 +527,16 @@
         <v>1.5</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>112.5874964898084</v>
+        <v>126.405365250393</v>
       </c>
       <c r="F6">
-        <v>-208.3992102083285</v>
+        <v>-232.5137503634261</v>
       </c>
       <c r="G6">
-        <v>-95.81171371852015</v>
+        <v>-106.1083851130331</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -547,19 +547,19 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>141.4631467228123</v>
+        <v>139.0273384196545</v>
       </c>
       <c r="F7">
-        <v>-257.6589168249637</v>
+        <v>-248.318237580883</v>
       </c>
       <c r="G7">
-        <v>-116.1957701021515</v>
+        <v>-109.2908991612285</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>144.9541931085554</v>
+        <v>151.3719168750791</v>
       </c>
       <c r="F8">
-        <v>-254.2417164454342</v>
+        <v>-263.1034457676568</v>
       </c>
       <c r="G8">
-        <v>-109.2875233368788</v>
+        <v>-111.7315288925777</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -593,19 +593,19 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>166.5185163227168</v>
+        <v>162.3451969556651</v>
       </c>
       <c r="F9">
-        <v>-287.3449016211316</v>
+        <v>-274.7351113015304</v>
       </c>
       <c r="G9">
-        <v>-120.8263852984148</v>
+        <v>-112.3899143458653</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -616,19 +616,19 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
-        <v>206.8589176558173</v>
+        <v>204.9773158606578</v>
       </c>
       <c r="F10">
-        <v>-356.8131625797917</v>
+        <v>-349.4166156560207</v>
       </c>
       <c r="G10">
-        <v>-149.9542449239743</v>
+        <v>-144.4392997953629</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -639,19 +639,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>232.0127528447979</v>
+        <v>216.9725032522238</v>
       </c>
       <c r="F11">
-        <v>-393.2012059446173</v>
+        <v>-359.8816846323155</v>
       </c>
       <c r="G11">
-        <v>-161.1884530998194</v>
+        <v>-142.9091813800917</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -662,19 +662,19 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>234.6137789903289</v>
+        <v>235.3040708809142</v>
       </c>
       <c r="F12">
-        <v>-383.2424746840451</v>
+        <v>-382.8718297584769</v>
       </c>
       <c r="G12">
-        <v>-148.6286956937163</v>
+        <v>-147.5677588775627</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -685,19 +685,19 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>244.3076420525887</v>
+        <v>238.9327633102718</v>
       </c>
       <c r="F13">
-        <v>-388.2260120277272</v>
+        <v>-375.7792711108916</v>
       </c>
       <c r="G13">
-        <v>-143.9183699751385</v>
+        <v>-136.8465078006198</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -711,16 +711,16 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E14">
-        <v>252.1384618502123</v>
+        <v>252.3817075033952</v>
       </c>
       <c r="F14">
-        <v>-389.5881460229076</v>
+        <v>-388.9441329543291</v>
       </c>
       <c r="G14">
-        <v>-137.4496841726953</v>
+        <v>-136.5624254509339</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -734,16 +734,16 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>257.5971827225935</v>
+        <v>253.4350825350388</v>
       </c>
       <c r="F15">
-        <v>-386.4624318899479</v>
+        <v>-377.0599531658411</v>
       </c>
       <c r="G15">
-        <v>-128.8652491673544</v>
+        <v>-123.6248706308023</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -751,7 +751,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -760,13 +760,13 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>295.9359365902914</v>
+        <v>291.8653074092904</v>
       </c>
       <c r="F16">
-        <v>-449.5383044853521</v>
+        <v>-440.742219962339</v>
       </c>
       <c r="G16">
-        <v>-153.6023678950607</v>
+        <v>-148.8769125530486</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -780,16 +780,16 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17">
-        <v>302.6321147754574</v>
+        <v>297.5509463310352</v>
       </c>
       <c r="F17">
-        <v>-446.9462238853171</v>
+        <v>-436.5174253731099</v>
       </c>
       <c r="G17">
-        <v>-144.3141091098597</v>
+        <v>-138.9664790420747</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -803,16 +803,16 @@
         <v>1.5</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>309.1811301987822</v>
+        <v>310.8116312411903</v>
       </c>
       <c r="F18">
-        <v>-444.5213143782194</v>
+        <v>-447.9651005245623</v>
       </c>
       <c r="G18">
-        <v>-135.3401841794372</v>
+        <v>-137.153469283372</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -826,16 +826,16 @@
         <v>1.5</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>312.2862170750482</v>
+        <v>323.7808843881334</v>
       </c>
       <c r="F19">
-        <v>-435.65279459626</v>
+        <v>-458.6744805911189</v>
       </c>
       <c r="G19">
-        <v>-123.3665775212118</v>
+        <v>-134.8935962029855</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -849,16 +849,16 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20">
-        <v>316.4230630610881</v>
+        <v>330.9651106048865</v>
       </c>
       <c r="F20">
-        <v>-429.5562323933459</v>
+        <v>-457.6931804487409</v>
       </c>
       <c r="G20">
-        <v>-113.1331693322578</v>
+        <v>-126.7280698438544</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -869,19 +869,19 @@
         <v>6</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E21">
-        <v>320.4689930553812</v>
+        <v>333.5914481659746</v>
       </c>
       <c r="F21">
-        <v>-423.8528558678399</v>
+        <v>-447.9751673111338</v>
       </c>
       <c r="G21">
-        <v>-103.3838628124587</v>
+        <v>-114.3837191451592</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -892,19 +892,19 @@
         <v>8</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>357.4260051302714</v>
+        <v>372.4600663715842</v>
       </c>
       <c r="F22">
-        <v>-484.5173072899638</v>
+        <v>-511.4838981402734</v>
       </c>
       <c r="G22">
-        <v>-127.0913021596923</v>
+        <v>-139.0238317686891</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -915,19 +915,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D23">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E23">
-        <v>364.9708082382036</v>
+        <v>395.6244639985418</v>
       </c>
       <c r="F23">
-        <v>-484.0693253384719</v>
+        <v>-541.1967594414263</v>
       </c>
       <c r="G23">
-        <v>-119.0985171002682</v>
+        <v>-145.5722954428845</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -938,19 +938,19 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>380.0497982461542</v>
+        <v>401.2297747050343</v>
       </c>
       <c r="F24">
-        <v>-499.0502350936831</v>
+        <v>-534.8933487339303</v>
       </c>
       <c r="G24">
-        <v>-119.0004368475289</v>
+        <v>-133.6635740288961</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -961,19 +961,19 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>385.9973953678967</v>
+        <v>412.2118967833667</v>
       </c>
       <c r="F25">
-        <v>-495.4649808118116</v>
+        <v>-539.9964639875449</v>
       </c>
       <c r="G25">
-        <v>-109.4675854439149</v>
+        <v>-127.7845672041781</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -987,16 +987,16 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>395.1142813892844</v>
+        <v>417.452663364394</v>
       </c>
       <c r="F26">
-        <v>-498.7109503880062</v>
+        <v>-533.7704639527227</v>
       </c>
       <c r="G26">
-        <v>-103.5966689987218</v>
+        <v>-116.3178005883287</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1007,19 +1007,19 @@
         <v>6</v>
       </c>
       <c r="C27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>412.8308044440366</v>
+        <v>418.1782529499916</v>
       </c>
       <c r="F27">
-        <v>-519.3475775997364</v>
+        <v>-519.1459974313394</v>
       </c>
       <c r="G27">
-        <v>-106.5167731556998</v>
+        <v>-100.9677444813478</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1036,13 +1036,13 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <v>447.7579692124851</v>
+        <v>452.9878961607427</v>
       </c>
       <c r="F28">
-        <v>-573.8532865038035</v>
+        <v>-573.6647068482243</v>
       </c>
       <c r="G28">
-        <v>-126.0953172913184</v>
+        <v>-120.6768106874817</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1053,19 +1053,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29">
-        <v>456.617535227066</v>
+        <v>464.4825234038855</v>
       </c>
       <c r="F29">
-        <v>-574.2437579076583</v>
+        <v>-579.5673403226292</v>
       </c>
       <c r="G29">
-        <v>-117.6262226805923</v>
+        <v>-115.0848169187437</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1079,16 +1079,16 @@
         <v>1.5</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E30">
-        <v>477.9323934296133</v>
+        <v>479.0245317583638</v>
       </c>
       <c r="F30">
-        <v>-599.9090466334196</v>
+        <v>-591.6892951680164</v>
       </c>
       <c r="G30">
-        <v>-121.9766532038063</v>
+        <v>-112.6647634096527</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1099,19 +1099,19 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>481.7288122754707</v>
+        <v>493.2469485409057</v>
       </c>
       <c r="F31">
-        <v>-589.8191035092226</v>
+        <v>-603.029468598114</v>
       </c>
       <c r="G31">
-        <v>-108.0902912337519</v>
+        <v>-109.7825200572083</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1125,16 +1125,16 @@
         <v>1.5</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E32">
-        <v>500.8417967402507</v>
+        <v>502.2067974562405</v>
       </c>
       <c r="F32">
-        <v>-611.1798912379645</v>
+        <v>-603.7382800534403</v>
       </c>
       <c r="G32">
-        <v>-110.3380944977138</v>
+        <v>-101.5314825971998</v>
       </c>
     </row>
   </sheetData>
